--- a/data_execl/base_data/MultiLanguage.xlsx
+++ b/data_execl/base_data/MultiLanguage.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\X1_tag1.2\data_execl\base_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A111839-C9E5-4A36-8DBE-3853013B14F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47D6E24F-EBC8-40D0-81C2-80E45824C0F2}"/>
+    <workbookView windowHeight="16160"/>
   </bookViews>
   <sheets>
     <sheet name="MultiLanguage" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,105 +27,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Lang_Show</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Font</t>
+  </si>
+  <si>
+    <t>Nouse</t>
+  </si>
+  <si>
+    <t>NameLimit</t>
+  </si>
+  <si>
+    <t>GuildNameLimit</t>
+  </si>
+  <si>
+    <t>CurrencyCode</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>正确性校对</t>
-  </si>
-  <si>
-    <t>校对值</t>
-  </si>
-  <si>
-    <t>币种符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>Price_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price_2</t>
-  </si>
-  <si>
-    <t>$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nouse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lang_Show</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exchange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Symbol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用语言
-对应Language表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用币种
-对应ExchangeRate表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新马简中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mut,int#int,1</t>
   </si>
   <si>
     <t>区域Id
@@ -141,140 +74,150 @@
 01：_en
 02：_jp
 03：_kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Japanese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price_3</t>
-  </si>
-  <si>
-    <t>Price_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>¥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>￦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Font</t>
-  </si>
-  <si>
-    <t>String</t>
+  </si>
+  <si>
+    <t>界面显示</t>
+  </si>
+  <si>
+    <t>使用语言
+对应Language表</t>
+  </si>
+  <si>
+    <t>使用币种
+对应ExchangeRate表</t>
+  </si>
+  <si>
+    <t>币种符号</t>
   </si>
   <si>
     <t>字体</t>
   </si>
   <si>
-    <t>OPPOSans-M-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KrFont1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JpFont1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mut,int#int,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2#12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4#12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildNameLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>备注</t>
   </si>
   <si>
     <t>玩家名字符限制
 最小等于字符数，最大等于字符数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公会名字符限制
 最小等于字符数，最大等于字符数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrencyCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>货币代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>正确性校对</t>
+  </si>
+  <si>
+    <t>校对值</t>
+  </si>
+  <si>
+    <t>韩文</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Price_4</t>
+  </si>
+  <si>
+    <t>￦</t>
+  </si>
+  <si>
+    <t>KrFont1</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>4#12</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Price_1</t>
+  </si>
+  <si>
+    <t>￥</t>
+  </si>
+  <si>
+    <t>OPPOSans-M-2</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>2#12</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Price_2</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>新马简中</t>
+  </si>
+  <si>
+    <t>日文</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Price_3</t>
+  </si>
+  <si>
+    <t>¥</t>
+  </si>
+  <si>
+    <t>JpFont1</t>
+  </si>
+  <si>
+    <t>日本</t>
   </si>
   <si>
     <t>JPY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -282,25 +225,167 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
-      <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +398,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -322,9 +593,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -332,30 +845,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -404,7 +961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -437,26 +994,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -489,23 +1029,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -647,97 +1170,92 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3CCC57-B710-4B29-8E89-23C441A888B1}">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
     <col min="9" max="9" width="35.875" customWidth="1"/>
     <col min="10" max="10" width="36.125" customWidth="1"/>
     <col min="11" max="11" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3">
         <v>2</v>
       </c>
@@ -769,215 +1287,210 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="4" ht="118" spans="2:11">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" t="s">
-        <v>51</v>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8">
         <v>10001</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9">
         <v>10101</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
         <v>40</v>
       </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10">
         <v>10002</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>40</v>
       </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11">
         <v>10201</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>10301</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data_execl/base_data/MultiLanguage.xlsx
+++ b/data_execl/base_data/MultiLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16160"/>
+    <workbookView windowHeight="23360"/>
   </bookViews>
   <sheets>
     <sheet name="MultiLanguage" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>¥</t>
-  </si>
-  <si>
-    <t>JpFont1</t>
   </si>
   <si>
     <t>日本</t>
@@ -213,7 +210,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,13 +229,6 @@
       <color theme="1"/>
       <name val="Malgun Gothic"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -696,148 +686,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,7 +1169,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:U7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1474,10 +1464,10 @@
         <v>51</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
         <v>52</v>
-      </c>
-      <c r="H11" t="s">
-        <v>53</v>
       </c>
       <c r="I11" t="s">
         <v>40</v>
@@ -1486,7 +1476,7 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
